--- a/Saas_data_fsa_class.xlsx
+++ b/Saas_data_fsa_class.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK212"/>
+  <dimension ref="A1:BO212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,6 +748,26 @@
           <t>overall_score</t>
         </is>
       </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>roic_ttm</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>ec_eps_ttm</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>fcf_ttm_to_ev</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>prc_to_ebv</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -909,6 +929,10 @@
       <c r="BK2" t="n">
         <v>1</v>
       </c>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1078,6 +1102,10 @@
       <c r="BK3" t="n">
         <v>1</v>
       </c>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1247,6 +1275,10 @@
       <c r="BK4" t="n">
         <v>1</v>
       </c>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1442,6 +1474,14 @@
       <c r="BK5" t="n">
         <v>3.5</v>
       </c>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="n">
+        <v>-0.005342346927817613</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>3.35927716806352</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1647,6 +1687,18 @@
       <c r="BK6" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="BL6" t="n">
+        <v>0.227555416796753</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0.2480951848232388</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>-0.009143933077958119</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>4.955442828260326</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1852,6 +1904,18 @@
       <c r="BK7" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="BL7" t="n">
+        <v>0.1566554243957279</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.1583995519305492</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>-0.006956879561294082</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>6.669346816901409</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -2057,6 +2121,18 @@
       <c r="BK8" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="BL8" t="n">
+        <v>0.1604120879120879</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.1641032732653993</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>-0.002360156965761853</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>8.037967339145421</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2266,6 +2342,18 @@
       <c r="BK9" t="n">
         <v>4</v>
       </c>
+      <c r="BL9" t="n">
+        <v>0.2284158415841584</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.2749392077067028</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.005243219207899215</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>6.893067357566383</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2471,6 +2559,18 @@
       <c r="BK10" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL10" t="n">
+        <v>0.2472253426196361</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.3557663572947173</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0.007087679615779486</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>6.206669328493647</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2676,6 +2776,18 @@
       <c r="BK11" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL11" t="n">
+        <v>0.2850128865979382</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0.4461708417904753</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0.006770457657714105</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>7.597501119766716</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2881,6 +2993,18 @@
       <c r="BK12" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL12" t="n">
+        <v>0.3749197969543147</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0.6447844538010763</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0.007868097151299097</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>5.397788220215087</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -3090,6 +3214,18 @@
       <c r="BK13" t="n">
         <v>2.666666666666667</v>
       </c>
+      <c r="BL13" t="n">
+        <v>0.7922037617554859</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>1.928315500957665</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>0.007442542651190857</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>2.418706330699812</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -3295,6 +3431,18 @@
       <c r="BK14" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL14" t="n">
+        <v>0.9067360895244015</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>2.241895407569087</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>0.01862947819557251</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>1.862381242499439</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3500,6 +3648,18 @@
       <c r="BK15" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL15" t="n">
+        <v>1.07497984496124</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>2.698602185553581</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>0.01918924274685908</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>2.15698967786469</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3705,6 +3865,18 @@
       <c r="BK16" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL16" t="n">
+        <v>1.153101557991921</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>3.137345666233304</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>0.02001742403302991</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>2.167572439938559</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3914,6 +4086,18 @@
       <c r="BK17" t="n">
         <v>2.666666666666667</v>
       </c>
+      <c r="BL17" t="n">
+        <v>0.6994647949111648</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>2.430845249282291</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>0.02214994796467155</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>2.644156728924755</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -4123,6 +4307,18 @@
       <c r="BK18" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL18" t="n">
+        <v>0.1162611870595228</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>1.022191806519931</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>0.02447150727022531</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>2.269792303791446</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -4332,6 +4528,18 @@
       <c r="BK19" t="n">
         <v>4</v>
       </c>
+      <c r="BL19" t="n">
+        <v>0.1057184281571843</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0.8464567900929832</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0.02092507223804337</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>2.901515232020325</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -4541,6 +4749,18 @@
       <c r="BK20" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL20" t="n">
+        <v>0.07850744260364984</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0.3412273716226444</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0.03450390934395558</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>2.431262669891115</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4750,6 +4970,18 @@
       <c r="BK21" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="BL21" t="n">
+        <v>0.04624257450455099</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>-0.2563887875878526</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0.02363681407698662</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>5.131152708280513</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -4959,6 +5191,18 @@
       <c r="BK22" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="BL22" t="n">
+        <v>0.008636711490106046</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>-1.750488399502721</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0.01682464911104918</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>13.63099434271464</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -5168,6 +5412,18 @@
       <c r="BK23" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="BL23" t="n">
+        <v>0.001018483386633422</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>-2.020491795668796</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>0.01008831847261495</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>41.02304738832736</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -5377,6 +5633,18 @@
       <c r="BK24" t="n">
         <v>4</v>
       </c>
+      <c r="BL24" t="n">
+        <v>0.005188699825479931</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>-1.866333560095054</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>0.007453555669046246</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>22.78293958228168</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -5586,6 +5854,18 @@
       <c r="BK25" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="BL25" t="n">
+        <v>0.01686021737371558</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>-1.484954390646787</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>0.004023696102558447</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>15.17783960588743</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -5795,6 +6075,18 @@
       <c r="BK26" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="BL26" t="n">
+        <v>0.02166475554151055</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>-1.313426722777876</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>0.004716480089209558</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>10.80888593612272</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -6003,6 +6295,18 @@
       </c>
       <c r="BK27" t="n">
         <v>4</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>0.02595136503344784</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>-1.163577969974334</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>0.00631895368335676</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>7.97067035670147</v>
       </c>
     </row>
     <row r="28">
@@ -6163,6 +6467,10 @@
       <c r="BK28" t="n">
         <v>1</v>
       </c>
+      <c r="BL28" t="inlineStr"/>
+      <c r="BM28" t="inlineStr"/>
+      <c r="BN28" t="inlineStr"/>
+      <c r="BO28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -6332,6 +6640,10 @@
       <c r="BK29" t="n">
         <v>1</v>
       </c>
+      <c r="BL29" t="inlineStr"/>
+      <c r="BM29" t="inlineStr"/>
+      <c r="BN29" t="inlineStr"/>
+      <c r="BO29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -6501,6 +6813,10 @@
       <c r="BK30" t="n">
         <v>1</v>
       </c>
+      <c r="BL30" t="inlineStr"/>
+      <c r="BM30" t="inlineStr"/>
+      <c r="BN30" t="inlineStr"/>
+      <c r="BO30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -6694,6 +7010,14 @@
       <c r="BK31" t="n">
         <v>1.5</v>
       </c>
+      <c r="BL31" t="inlineStr"/>
+      <c r="BM31" t="inlineStr"/>
+      <c r="BN31" t="n">
+        <v>0.06425952786945328</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>0.6047577318438245</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -6897,6 +7221,18 @@
       <c r="BK32" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL32" t="n">
+        <v>0.2443872753686185</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>3.600473531382623</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>0.05323209636374804</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>0.6526000426925399</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -7102,6 +7438,18 @@
       <c r="BK33" t="n">
         <v>2</v>
       </c>
+      <c r="BL33" t="n">
+        <v>0.226885110141887</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>3.411726862302483</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>0.05872405709534011</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>0.6710669644038871</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -7307,6 +7655,18 @@
       <c r="BK34" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL34" t="n">
+        <v>0.2233497236219948</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>3.383179310344828</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>0.05774269978503397</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>0.7537183099885049</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -7516,6 +7876,18 @@
       <c r="BK35" t="n">
         <v>2</v>
       </c>
+      <c r="BL35" t="n">
+        <v>0.231743614539774</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>3.778620528407763</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>0.05792195047960586</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>0.7995368853787319</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -7725,6 +8097,18 @@
       <c r="BK36" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL36" t="n">
+        <v>0.2447789974539839</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>4.1824468587624</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>0.06642527959694788</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>0.690604242949971</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -7934,6 +8318,18 @@
       <c r="BK37" t="n">
         <v>2</v>
       </c>
+      <c r="BL37" t="n">
+        <v>0.251969741564041</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>4.370775922877969</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>0.104364877530199</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>0.5095137429324791</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -8143,6 +8539,18 @@
       <c r="BK38" t="n">
         <v>2</v>
       </c>
+      <c r="BL38" t="n">
+        <v>0.2362787743755791</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>4.131625183016105</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>0.1052879696424177</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>0.4947209467920544</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -8352,6 +8760,18 @@
       <c r="BK39" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL39" t="n">
+        <v>0.220174103059254</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>3.878791533349742</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>0.09461715926636564</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>0.6124496777227144</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -8557,6 +8977,18 @@
       <c r="BK40" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL40" t="n">
+        <v>0.1947997070596615</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>3.327563150074293</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>0.08277222917549985</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>0.734089162328443</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -8766,6 +9198,18 @@
       <c r="BK41" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL41" t="n">
+        <v>0.192349213612805</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>3.279304905102292</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>0.07858774452305402</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>0.6757344557999981</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -8975,6 +9419,18 @@
       <c r="BK42" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL42" t="n">
+        <v>0.2185558751847857</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>3.903117777231375</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>0.09635296430633956</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>0.5321309795828782</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -9184,6 +9640,18 @@
       <c r="BK43" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL43" t="n">
+        <v>0.1969631660507808</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>3.527087426326129</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>0.05565211545268137</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>0.5840731354851565</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -9387,6 +9855,18 @@
       <c r="BK44" t="n">
         <v>2</v>
       </c>
+      <c r="BL44" t="n">
+        <v>0.2457884954210149</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>4.693814360373087</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>0.06002848624807831</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>0.4417947304137996</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -9590,6 +10070,18 @@
       <c r="BK45" t="n">
         <v>2.666666666666667</v>
       </c>
+      <c r="BL45" t="n">
+        <v>0.1870563580148296</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>3.292727715538236</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>-0.004041609432690984</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>0.4526726049838394</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -9793,6 +10285,18 @@
       <c r="BK46" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL46" t="n">
+        <v>0.1286182336182336</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>1.832490913496486</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>-0.1043836388044951</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>0.4983701718084924</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -10002,6 +10506,18 @@
       <c r="BK47" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL47" t="n">
+        <v>0.07902112105758498</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>0.5251728305535412</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>-0.07435259087295283</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>0.8344431556805002</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -10205,6 +10721,18 @@
       <c r="BK48" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="BL48" t="n">
+        <v>-0.01390197529164803</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>-2.059474946056102</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>-0.1376398596621334</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>-2.92932583797656</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -10408,6 +10936,18 @@
       <c r="BK49" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="BL49" t="n">
+        <v>0.004839789216053546</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>-1.582141833810888</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>-0.1027379479934707</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>-19.7119441593102</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -10611,6 +11151,18 @@
       <c r="BK50" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="BL50" t="n">
+        <v>0.0005522717318363922</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>-1.754546963946869</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>-0.0588192430413659</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>-10.40903798194699</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -10820,6 +11372,18 @@
       <c r="BK51" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="BL51" t="n">
+        <v>0.02837931144202622</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>-0.9401844843897824</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>-0.07176233705089613</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>4.272998068486615</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -11029,6 +11593,18 @@
       <c r="BK52" t="n">
         <v>4</v>
       </c>
+      <c r="BL52" t="n">
+        <v>0.0446735336301153</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>-0.4832229269438569</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>-0.07955402560286286</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>1.725346343503182</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -11237,6 +11813,18 @@
       </c>
       <c r="BK53" t="n">
         <v>4.666666666666667</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>0.0217133894739928</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>-1.227141179234202</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>-0.1274039729507515</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>2.570824393656716</v>
       </c>
     </row>
     <row r="54">
@@ -11399,6 +11987,10 @@
       <c r="BK54" t="n">
         <v>1</v>
       </c>
+      <c r="BL54" t="inlineStr"/>
+      <c r="BM54" t="inlineStr"/>
+      <c r="BN54" t="inlineStr"/>
+      <c r="BO54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -11568,6 +12160,10 @@
       <c r="BK55" t="n">
         <v>1</v>
       </c>
+      <c r="BL55" t="inlineStr"/>
+      <c r="BM55" t="inlineStr"/>
+      <c r="BN55" t="inlineStr"/>
+      <c r="BO55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -11737,6 +12333,10 @@
       <c r="BK56" t="n">
         <v>1</v>
       </c>
+      <c r="BL56" t="inlineStr"/>
+      <c r="BM56" t="inlineStr"/>
+      <c r="BN56" t="inlineStr"/>
+      <c r="BO56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -11922,6 +12522,12 @@
       <c r="BK57" t="n">
         <v>1</v>
       </c>
+      <c r="BL57" t="inlineStr"/>
+      <c r="BM57" t="inlineStr"/>
+      <c r="BN57" t="inlineStr"/>
+      <c r="BO57" t="n">
+        <v>0.129029652625421</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -12123,6 +12729,18 @@
       <c r="BK58" t="n">
         <v>1.333333333333333</v>
       </c>
+      <c r="BL58" t="n">
+        <v>0.4282528001556092</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>10.26424815688627</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>0.1833977350102592</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>0.200027583140077</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -12324,6 +12942,18 @@
       <c r="BK59" t="n">
         <v>1.333333333333333</v>
       </c>
+      <c r="BL59" t="n">
+        <v>0.317153442612743</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>7.482893233665789</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>0.1477984909170591</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>0.2563206424582893</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -12529,6 +13159,18 @@
       <c r="BK60" t="n">
         <v>2.666666666666667</v>
       </c>
+      <c r="BL60" t="n">
+        <v>0.1946799405105169</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>4.020010817147624</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>0.07915086388556795</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>0.4206013428338023</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -12734,6 +13376,18 @@
       <c r="BK61" t="n">
         <v>3</v>
       </c>
+      <c r="BL61" t="n">
+        <v>0.1061224609346397</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>1.417523499514797</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>0.02295988062614214</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>0.9864178086596131</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -12939,6 +13593,18 @@
       <c r="BK62" t="n">
         <v>3.333333333333333</v>
       </c>
+      <c r="BL62" t="n">
+        <v>0.06965162550819579</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>0.3020358105568676</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>0.01177140824997527</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>1.100744986763823</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -13144,6 +13810,18 @@
       <c r="BK63" t="n">
         <v>3.333333333333333</v>
       </c>
+      <c r="BL63" t="n">
+        <v>0.06745315305206463</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>0.2391453449961207</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>0.005443247276554248</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>1.344227019654589</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -13347,6 +14025,18 @@
       <c r="BK64" t="n">
         <v>3</v>
       </c>
+      <c r="BL64" t="n">
+        <v>0.07801733254590654</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>0.5903971024250273</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>0.001631625869493426</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>1.071564718516767</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -13550,6 +14240,18 @@
       <c r="BK65" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL65" t="n">
+        <v>0.08342836731183934</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>0.7915106407513917</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>-0.00856608694511103</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>1.665020341473863</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -13753,6 +14455,18 @@
       <c r="BK66" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL66" t="n">
+        <v>0.08750251564929888</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>0.9383315379841202</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>-0.006364329155037545</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>1.843740749092287</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -13956,6 +14670,18 @@
       <c r="BK67" t="n">
         <v>3.333333333333333</v>
       </c>
+      <c r="BL67" t="n">
+        <v>0.1097168516261466</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>1.721148670135749</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>0.006546914414521834</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>1.193408989279761</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -14159,6 +14885,18 @@
       <c r="BK68" t="n">
         <v>2.666666666666667</v>
       </c>
+      <c r="BL68" t="n">
+        <v>0.1497517673021058</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>3.197288217496896</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>0.03195920653259269</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>0.7695445289125002</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -14362,6 +15100,18 @@
       <c r="BK69" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL69" t="n">
+        <v>0.1801646544895951</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>4.469339475258218</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>0.03812735816593052</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>0.8195730793170333</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -14565,6 +15315,18 @@
       <c r="BK70" t="n">
         <v>2</v>
       </c>
+      <c r="BL70" t="n">
+        <v>0.2147823848143337</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>5.905640140849474</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>0.0588327298837027</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>0.5528869499906234</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -14768,6 +15530,18 @@
       <c r="BK71" t="n">
         <v>2</v>
       </c>
+      <c r="BL71" t="n">
+        <v>0.2303433677730866</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>6.666195025016411</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>0.07863537299628934</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>0.3816299640820103</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -14971,6 +15745,18 @@
       <c r="BK72" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL72" t="n">
+        <v>0.1968195030682362</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>5.568243521930481</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>0.05487115811994063</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>0.4001112854894381</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -15174,6 +15960,18 @@
       <c r="BK73" t="n">
         <v>2.666666666666667</v>
       </c>
+      <c r="BL73" t="n">
+        <v>0.1367834566676016</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>3.261606503802775</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>0.01786921917305281</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>0.5011956465918281</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -15377,6 +16175,18 @@
       <c r="BK74" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL74" t="n">
+        <v>0.03802945733143743</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>-0.945939031098489</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>-0.02948455432465842</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>2.236499488843813</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -15580,6 +16390,18 @@
       <c r="BK75" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="BL75" t="n">
+        <v>-0.05580293343362167</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>-5.060303003189989</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>-0.06739885419263859</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>-1.449904912759694</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -15783,6 +16605,18 @@
       <c r="BK76" t="n">
         <v>5</v>
       </c>
+      <c r="BL76" t="n">
+        <v>-0.1140844721522646</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>-7.699246417882923</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>-0.07878941268126219</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>-0.7783505113618505</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -15986,6 +16820,18 @@
       <c r="BK77" t="n">
         <v>5</v>
       </c>
+      <c r="BL77" t="n">
+        <v>-0.1324348162633423</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>-8.5577796720563</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>-0.05012177311056091</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>-0.8498233303968933</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -16189,6 +17035,18 @@
       <c r="BK78" t="n">
         <v>4.333333333333333</v>
       </c>
+      <c r="BL78" t="n">
+        <v>-0.06749275362318839</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>-5.719724608260308</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>-0.02431062616720393</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>-2.176554687138083</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -16390,6 +17248,18 @@
       <c r="BK79" t="n">
         <v>3.5</v>
       </c>
+      <c r="BL79" t="n">
+        <v>-0.0220352387626389</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>-3.695074406519961</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>-0.009075904814783197</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>-6.411321901750866</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -16590,6 +17460,18 @@
       </c>
       <c r="BK80" t="n">
         <v>4</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>0.02431680015919606</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>-1.61715701349427</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>0.001043428703802544</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>7.116152825275638</v>
       </c>
     </row>
     <row r="81">
@@ -16752,6 +17634,10 @@
       <c r="BK81" t="n">
         <v>1</v>
       </c>
+      <c r="BL81" t="inlineStr"/>
+      <c r="BM81" t="inlineStr"/>
+      <c r="BN81" t="inlineStr"/>
+      <c r="BO81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -16921,6 +17807,10 @@
       <c r="BK82" t="n">
         <v>1</v>
       </c>
+      <c r="BL82" t="inlineStr"/>
+      <c r="BM82" t="inlineStr"/>
+      <c r="BN82" t="inlineStr"/>
+      <c r="BO82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -17090,6 +17980,10 @@
       <c r="BK83" t="n">
         <v>1</v>
       </c>
+      <c r="BL83" t="inlineStr"/>
+      <c r="BM83" t="inlineStr"/>
+      <c r="BN83" t="inlineStr"/>
+      <c r="BO83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -17285,6 +18179,14 @@
       <c r="BK84" t="n">
         <v>1.5</v>
       </c>
+      <c r="BL84" t="inlineStr"/>
+      <c r="BM84" t="inlineStr"/>
+      <c r="BN84" t="n">
+        <v>0.06171491692547953</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>1.037461165865918</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -17490,6 +18392,18 @@
       <c r="BK85" t="n">
         <v>2</v>
       </c>
+      <c r="BL85" t="n">
+        <v>0.4612810588088401</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>5.135060859672837</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>0.05368575741131411</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>1.212942776006377</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -17695,6 +18609,18 @@
       <c r="BK86" t="n">
         <v>1.666666666666667</v>
       </c>
+      <c r="BL86" t="n">
+        <v>0.460062436719541</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>5.073526185979573</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>0.04803615416582111</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>1.365122480734866</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -17900,6 +18826,18 @@
       <c r="BK87" t="n">
         <v>1.666666666666667</v>
       </c>
+      <c r="BL87" t="n">
+        <v>0.4570092895234818</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>4.93556306927665</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>0.05326665039736762</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>1.282322214498605</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -18109,6 +19047,18 @@
       <c r="BK88" t="n">
         <v>1.666666666666667</v>
       </c>
+      <c r="BL88" t="n">
+        <v>0.4639347953348044</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>4.812163101696079</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>0.04832689278617565</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>1.401742847007694</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -18318,6 +19268,18 @@
       <c r="BK89" t="n">
         <v>1.666666666666667</v>
       </c>
+      <c r="BL89" t="n">
+        <v>0.4412658555526793</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>4.814360413740652</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>0.05216211893197939</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>1.273448877250801</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -18527,6 +19489,18 @@
       <c r="BK90" t="n">
         <v>1.666666666666667</v>
       </c>
+      <c r="BL90" t="n">
+        <v>0.4583729142756246</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>4.926469303800232</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>0.04651938248291378</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>1.428453358882399</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -18736,6 +19710,18 @@
       <c r="BK91" t="n">
         <v>1.666666666666667</v>
       </c>
+      <c r="BL91" t="n">
+        <v>0.4560788501757664</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>4.848389113909158</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>0.03821873625342479</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>1.591813240789331</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -18945,6 +19931,18 @@
       <c r="BK92" t="n">
         <v>2</v>
       </c>
+      <c r="BL92" t="n">
+        <v>0.5214049099242184</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>5.52995907996267</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>0.03451271888629226</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>1.664906184987487</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -19154,6 +20152,18 @@
       <c r="BK93" t="n">
         <v>1.666666666666667</v>
       </c>
+      <c r="BL93" t="n">
+        <v>0.5650250134000356</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>6.121389373746647</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>0.03852287116084454</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>1.559120109467283</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -19363,6 +20373,18 @@
       <c r="BK94" t="n">
         <v>1.666666666666667</v>
       </c>
+      <c r="BL94" t="n">
+        <v>0.6161672942442172</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>6.71947877514325</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>0.0382220321358461</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>1.476698885005681</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -19572,6 +20594,18 @@
       <c r="BK95" t="n">
         <v>1.666666666666667</v>
       </c>
+      <c r="BL95" t="n">
+        <v>0.660463696296624</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>7.347427143361423</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>0.04168556037512058</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>1.369338222049393</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -19781,6 +20815,18 @@
       <c r="BK96" t="n">
         <v>1.666666666666667</v>
       </c>
+      <c r="BL96" t="n">
+        <v>0.6626222371064969</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>7.789740259740258</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>0.03831502523653775</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>1.242452410383189</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -19990,6 +21036,18 @@
       <c r="BK97" t="n">
         <v>1.666666666666667</v>
       </c>
+      <c r="BL97" t="n">
+        <v>0.6807224504739048</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>8.2671924132984</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>0.04072301250684302</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>1.134271961197509</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -20199,6 +21257,18 @@
       <c r="BK98" t="n">
         <v>1.666666666666667</v>
       </c>
+      <c r="BL98" t="n">
+        <v>0.6794062718854563</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>8.632140231246217</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>0.03597290193366913</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>1.123997853955832</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -20408,6 +21478,18 @@
       <c r="BK99" t="n">
         <v>1.333333333333333</v>
       </c>
+      <c r="BL99" t="n">
+        <v>0.6930106788710907</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>9.14392466933753</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>0.04096005716880446</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>0.9553180795774626</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -20617,6 +21699,18 @@
       <c r="BK100" t="n">
         <v>1.333333333333333</v>
       </c>
+      <c r="BL100" t="n">
+        <v>0.6321054683346918</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>8.893564367344959</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>0.03777473088231323</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>1.054802427158179</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -20826,6 +21920,18 @@
       <c r="BK101" t="n">
         <v>1.666666666666667</v>
       </c>
+      <c r="BL101" t="n">
+        <v>0.5622625670408742</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>8.305709003651174</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>0.02909460844007538</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>1.075161515060348</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -21035,6 +22141,18 @@
       <c r="BK102" t="n">
         <v>2</v>
       </c>
+      <c r="BL102" t="n">
+        <v>0.4897153124128745</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>7.638854318333506</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>0.01938354243436338</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>1.24747735885781</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -21244,6 +22362,18 @@
       <c r="BK103" t="n">
         <v>1.666666666666667</v>
       </c>
+      <c r="BL103" t="n">
+        <v>0.4350588652901852</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>6.980392070503984</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>0.01280470795545783</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>1.050544707593512</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -21453,6 +22583,18 @@
       <c r="BK104" t="n">
         <v>2</v>
       </c>
+      <c r="BL104" t="n">
+        <v>0.3819194872371528</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>6.304376549761948</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>0.008809439676995981</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>1.360004378521052</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -21662,6 +22804,18 @@
       <c r="BK105" t="n">
         <v>2.666666666666667</v>
       </c>
+      <c r="BL105" t="n">
+        <v>0.3244753423944176</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>5.578056458007957</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>0.005644922899552615</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>1.623194255722534</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -21870,6 +23024,18 @@
       </c>
       <c r="BK106" t="n">
         <v>2.666666666666667</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>0.2812408867728017</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>4.885712220413867</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>0.007944749363452323</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>2.0302873340089</v>
       </c>
     </row>
     <row r="107">
@@ -22032,6 +23198,10 @@
       <c r="BK107" t="n">
         <v>1</v>
       </c>
+      <c r="BL107" t="inlineStr"/>
+      <c r="BM107" t="inlineStr"/>
+      <c r="BN107" t="inlineStr"/>
+      <c r="BO107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -22201,6 +23371,10 @@
       <c r="BK108" t="n">
         <v>1</v>
       </c>
+      <c r="BL108" t="inlineStr"/>
+      <c r="BM108" t="inlineStr"/>
+      <c r="BN108" t="inlineStr"/>
+      <c r="BO108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -22370,6 +23544,10 @@
       <c r="BK109" t="n">
         <v>1</v>
       </c>
+      <c r="BL109" t="inlineStr"/>
+      <c r="BM109" t="inlineStr"/>
+      <c r="BN109" t="inlineStr"/>
+      <c r="BO109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -22559,6 +23737,12 @@
       <c r="BK110" t="n">
         <v>1.5</v>
       </c>
+      <c r="BL110" t="inlineStr"/>
+      <c r="BM110" t="inlineStr"/>
+      <c r="BN110" t="inlineStr"/>
+      <c r="BO110" t="n">
+        <v>1.546959520786092</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -22764,6 +23948,18 @@
       <c r="BK111" t="n">
         <v>3.333333333333333</v>
       </c>
+      <c r="BL111" t="n">
+        <v>0.208979534818747</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>1.754496795670639</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>0.01909984516699454</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>2.303719997331021</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -22969,6 +24165,18 @@
       <c r="BK112" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL112" t="n">
+        <v>0.2799238149998203</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>2.517081284374388</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>0.05841949422682814</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>1.294663425402281</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -23174,6 +24382,18 @@
       <c r="BK113" t="n">
         <v>2</v>
       </c>
+      <c r="BL113" t="n">
+        <v>0.4639271409498378</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>3.709417653008946</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>0.06095409612033165</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>1.298875101910669</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -23383,6 +24603,18 @@
       <c r="BK114" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL114" t="n">
+        <v>0.3323995488509798</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>3.382799656140191</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>0.06506238181539345</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>1.397828305717704</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -23592,6 +24824,18 @@
       <c r="BK115" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL115" t="n">
+        <v>0.3236603841321127</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>3.264324472321784</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>0.07598201185122819</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>1.27288155631134</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -23801,6 +25045,18 @@
       <c r="BK116" t="n">
         <v>3.333333333333333</v>
       </c>
+      <c r="BL116" t="n">
+        <v>0.2534732915310739</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>2.160456842623991</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>0.02995234355436982</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>2.641053895192852</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -24010,6 +25266,18 @@
       <c r="BK117" t="n">
         <v>3</v>
       </c>
+      <c r="BL117" t="n">
+        <v>0.4437667702718653</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>4.312201591511936</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>0.02739574278735737</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>1.730083575799593</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -24219,6 +25487,18 @@
       <c r="BK118" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL118" t="n">
+        <v>0.4534736908757044</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>5.47018485915493</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>0.03713389380662609</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>1.431748730902436</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -24428,6 +25708,18 @@
       <c r="BK119" t="n">
         <v>2</v>
       </c>
+      <c r="BL119" t="n">
+        <v>0.529542307571818</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>6.643732269503547</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>0.05132596029900636</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>1.107085991106471</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -24637,6 +25929,18 @@
       <c r="BK120" t="n">
         <v>1.666666666666667</v>
       </c>
+      <c r="BL120" t="n">
+        <v>0.6232684774515199</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>7.712234042553191</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>0.05534979254138861</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>1.058921393514656</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -24846,6 +26150,18 @@
       <c r="BK121" t="n">
         <v>2</v>
       </c>
+      <c r="BL121" t="n">
+        <v>0.6391427123796656</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>7.619675721414081</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>0.04592276848518628</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>1.195170626489879</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -25055,6 +26371,18 @@
       <c r="BK122" t="n">
         <v>2</v>
       </c>
+      <c r="BL122" t="n">
+        <v>0.5514434109759653</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>8.227861579414375</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>0.03605058807521798</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>1.191127276098756</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -25264,6 +26592,18 @@
       <c r="BK123" t="n">
         <v>1.333333333333333</v>
       </c>
+      <c r="BL123" t="n">
+        <v>0.5803746144780723</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>9.207213842058563</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>0.04315747915214838</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>0.8613624820307781</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -25473,6 +26813,18 @@
       <c r="BK124" t="n">
         <v>1.333333333333333</v>
       </c>
+      <c r="BL124" t="n">
+        <v>0.5680950037445169</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>10.6008125</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>0.03846672965312458</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>0.774743788588536</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -25682,6 +27034,18 @@
       <c r="BK125" t="n">
         <v>1.333333333333333</v>
       </c>
+      <c r="BL125" t="n">
+        <v>0.5651318376926817</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>10.65530776092774</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>0.05079819469430176</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>0.5885627199983827</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -25891,6 +27255,18 @@
       <c r="BK126" t="n">
         <v>1.333333333333333</v>
       </c>
+      <c r="BL126" t="n">
+        <v>0.4493873575891216</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>9.502448430493272</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>0.05164460537579511</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>0.7551287887004472</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -26100,6 +27476,18 @@
       <c r="BK127" t="n">
         <v>1.666666666666667</v>
       </c>
+      <c r="BL127" t="n">
+        <v>0.3863240442515053</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>8.367253141831238</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>0.05391044196651826</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>0.6748170462810769</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -26309,6 +27697,18 @@
       <c r="BK128" t="n">
         <v>2</v>
       </c>
+      <c r="BL128" t="n">
+        <v>0.2896891142449691</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>6.494480286738351</v>
+      </c>
+      <c r="BN128" t="n">
+        <v>0.04969535530875846</v>
+      </c>
+      <c r="BO128" t="n">
+        <v>0.9022204306739529</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -26518,6 +27918,18 @@
       <c r="BK129" t="n">
         <v>2</v>
       </c>
+      <c r="BL129" t="n">
+        <v>0.2623985694282774</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>5.389748427672957</v>
+      </c>
+      <c r="BN129" t="n">
+        <v>0.07248928300893601</v>
+      </c>
+      <c r="BO129" t="n">
+        <v>1.048785899764267</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -26727,6 +28139,18 @@
       <c r="BK130" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL130" t="n">
+        <v>0.2560133606292425</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>5.701013740381463</v>
+      </c>
+      <c r="BN130" t="n">
+        <v>0.06015283282784775</v>
+      </c>
+      <c r="BO130" t="n">
+        <v>1.190572849771597</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -26936,6 +28360,18 @@
       <c r="BK131" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL131" t="n">
+        <v>0.2731938965844112</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>6.242606464228986</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>0.06041697283895053</v>
+      </c>
+      <c r="BO131" t="n">
+        <v>1.36594381991197</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -27142,6 +28578,18 @@
       </c>
       <c r="BK132" t="n">
         <v>2</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>0.2885430566814242</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>6.580152603231598</v>
+      </c>
+      <c r="BN132" t="n">
+        <v>0.07046807353845616</v>
+      </c>
+      <c r="BO132" t="n">
+        <v>1.157739837025736</v>
       </c>
     </row>
     <row r="133">
@@ -27304,6 +28752,10 @@
       <c r="BK133" t="n">
         <v>1</v>
       </c>
+      <c r="BL133" t="inlineStr"/>
+      <c r="BM133" t="inlineStr"/>
+      <c r="BN133" t="inlineStr"/>
+      <c r="BO133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -27473,6 +28925,10 @@
       <c r="BK134" t="n">
         <v>1</v>
       </c>
+      <c r="BL134" t="inlineStr"/>
+      <c r="BM134" t="inlineStr"/>
+      <c r="BN134" t="inlineStr"/>
+      <c r="BO134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -27642,6 +29098,10 @@
       <c r="BK135" t="n">
         <v>1</v>
       </c>
+      <c r="BL135" t="inlineStr"/>
+      <c r="BM135" t="inlineStr"/>
+      <c r="BN135" t="inlineStr"/>
+      <c r="BO135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -27831,6 +29291,12 @@
       <c r="BK136" t="n">
         <v>1</v>
       </c>
+      <c r="BL136" t="inlineStr"/>
+      <c r="BM136" t="inlineStr"/>
+      <c r="BN136" t="inlineStr"/>
+      <c r="BO136" t="n">
+        <v>1.043711289823571</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -28034,6 +29500,18 @@
       <c r="BK137" t="n">
         <v>2</v>
       </c>
+      <c r="BL137" t="n">
+        <v>1.111151804670913</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>6.493016393442621</v>
+      </c>
+      <c r="BN137" t="n">
+        <v>0.03508372429974874</v>
+      </c>
+      <c r="BO137" t="n">
+        <v>1.263319048231055</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -28239,6 +29717,18 @@
       <c r="BK138" t="n">
         <v>2</v>
       </c>
+      <c r="BL138" t="n">
+        <v>0.8150635386119257</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>5.073431855500822</v>
+      </c>
+      <c r="BN138" t="n">
+        <v>0.02753831691479361</v>
+      </c>
+      <c r="BO138" t="n">
+        <v>1.523617853659606</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -28444,6 +29934,18 @@
       <c r="BK139" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL139" t="n">
+        <v>0.6513764898340734</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>4.155172413793103</v>
+      </c>
+      <c r="BN139" t="n">
+        <v>0.02487798148171306</v>
+      </c>
+      <c r="BO139" t="n">
+        <v>1.991084528287476</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -28653,6 +30155,18 @@
       <c r="BK140" t="n">
         <v>2.666666666666667</v>
       </c>
+      <c r="BL140" t="n">
+        <v>0.5381461167178587</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>3.56109477124183</v>
+      </c>
+      <c r="BN140" t="n">
+        <v>0.02988825872496213</v>
+      </c>
+      <c r="BO140" t="n">
+        <v>2.686826165141556</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -28862,6 +30376,18 @@
       <c r="BK141" t="n">
         <v>2.666666666666667</v>
       </c>
+      <c r="BL141" t="n">
+        <v>0.6123634793870062</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>4.181535947712418</v>
+      </c>
+      <c r="BN141" t="n">
+        <v>0.02364526784686368</v>
+      </c>
+      <c r="BO141" t="n">
+        <v>3.40167330868584</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -29071,6 +30597,18 @@
       <c r="BK142" t="n">
         <v>2.666666666666667</v>
       </c>
+      <c r="BL142" t="n">
+        <v>0.65985704494272</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>4.980764227642276</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>0.02216953443977676</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>3.215201790499266</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -29280,6 +30818,18 @@
       <c r="BK143" t="n">
         <v>3</v>
       </c>
+      <c r="BL143" t="n">
+        <v>0.4086419316843345</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>4.797358184764992</v>
+      </c>
+      <c r="BN143" t="n">
+        <v>0.01593209670374843</v>
+      </c>
+      <c r="BO143" t="n">
+        <v>5.149337384393418</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -29489,6 +31039,18 @@
       <c r="BK144" t="n">
         <v>3</v>
       </c>
+      <c r="BL144" t="n">
+        <v>0.4205550811272417</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>5.456672051696284</v>
+      </c>
+      <c r="BN144" t="n">
+        <v>0.01329060691226556</v>
+      </c>
+      <c r="BO144" t="n">
+        <v>4.702470539378541</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -29698,6 +31260,18 @@
       <c r="BK145" t="n">
         <v>3.333333333333333</v>
       </c>
+      <c r="BL145" t="n">
+        <v>0.4711522677049352</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>6.30190322580645</v>
+      </c>
+      <c r="BN145" t="n">
+        <v>0.01428971530162441</v>
+      </c>
+      <c r="BO145" t="n">
+        <v>4.229441671719764</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -29907,6 +31481,18 @@
       <c r="BK146" t="n">
         <v>3.333333333333333</v>
       </c>
+      <c r="BL146" t="n">
+        <v>0.5437387431964373</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>7.846195826645264</v>
+      </c>
+      <c r="BN146" t="n">
+        <v>0.01335467143186652</v>
+      </c>
+      <c r="BO146" t="n">
+        <v>4.326077930946478</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -30116,6 +31702,18 @@
       <c r="BK147" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL147" t="n">
+        <v>0.5283837353348393</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>2.575172275641025</v>
+      </c>
+      <c r="BN147" t="n">
+        <v>0.01241285671737991</v>
+      </c>
+      <c r="BO147" t="n">
+        <v>4.254282582143774</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -30325,6 +31923,18 @@
       <c r="BK148" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL148" t="n">
+        <v>0.5301798640746008</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>2.974828</v>
+      </c>
+      <c r="BN148" t="n">
+        <v>0.009105820166414081</v>
+      </c>
+      <c r="BO148" t="n">
+        <v>5.378939687287498</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -30534,6 +32144,18 @@
       <c r="BK149" t="n">
         <v>3.333333333333333</v>
       </c>
+      <c r="BL149" t="n">
+        <v>0.6059470170411243</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>3.581739999999999</v>
+      </c>
+      <c r="BN149" t="n">
+        <v>0.01478459435087413</v>
+      </c>
+      <c r="BO149" t="n">
+        <v>3.19296720934257</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -30743,6 +32365,18 @@
       <c r="BK150" t="n">
         <v>2.666666666666667</v>
       </c>
+      <c r="BL150" t="n">
+        <v>0.5632624609910463</v>
+      </c>
+      <c r="BM150" t="n">
+        <v>3.44553984123092</v>
+      </c>
+      <c r="BN150" t="n">
+        <v>0.01761496311669412</v>
+      </c>
+      <c r="BO150" t="n">
+        <v>2.70297212564974</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -30952,6 +32586,18 @@
       <c r="BK151" t="n">
         <v>3</v>
       </c>
+      <c r="BL151" t="n">
+        <v>0.4476385053260441</v>
+      </c>
+      <c r="BM151" t="n">
+        <v>2.746737837727744</v>
+      </c>
+      <c r="BN151" t="n">
+        <v>0.016405898888326</v>
+      </c>
+      <c r="BO151" t="n">
+        <v>2.809092023832116</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -31161,6 +32807,18 @@
       <c r="BK152" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL152" t="n">
+        <v>0.3148899961671138</v>
+      </c>
+      <c r="BM152" t="n">
+        <v>2.027463414634146</v>
+      </c>
+      <c r="BN152" t="n">
+        <v>0.01228810087388271</v>
+      </c>
+      <c r="BO152" t="n">
+        <v>3.784633536857353</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -31370,6 +33028,18 @@
       <c r="BK153" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL153" t="n">
+        <v>0.223322268866543</v>
+      </c>
+      <c r="BM153" t="n">
+        <v>1.360089430894309</v>
+      </c>
+      <c r="BN153" t="n">
+        <v>0.006685984855401532</v>
+      </c>
+      <c r="BO153" t="n">
+        <v>7.339502486709705</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -31579,6 +33249,18 @@
       <c r="BK154" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL154" t="n">
+        <v>0.2380984137569666</v>
+      </c>
+      <c r="BM154" t="n">
+        <v>1.513692307692308</v>
+      </c>
+      <c r="BN154" t="n">
+        <v>0.005480498193509182</v>
+      </c>
+      <c r="BO154" t="n">
+        <v>10.73500181884322</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -31788,6 +33470,18 @@
       <c r="BK155" t="n">
         <v>3</v>
       </c>
+      <c r="BL155" t="n">
+        <v>0.4808340942293645</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>3.731963562753037</v>
+      </c>
+      <c r="BN155" t="n">
+        <v>0.008608986871607755</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>6.642382948697805</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -31997,6 +33691,18 @@
       <c r="BK156" t="n">
         <v>3</v>
       </c>
+      <c r="BL156" t="n">
+        <v>0.7848407119661281</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>7.138947368421053</v>
+      </c>
+      <c r="BN156" t="n">
+        <v>0.01493494749575081</v>
+      </c>
+      <c r="BO156" t="n">
+        <v>3.616152049302034</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -32206,6 +33912,18 @@
       <c r="BK157" t="n">
         <v>3</v>
       </c>
+      <c r="BL157" t="n">
+        <v>1.163725798621225</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>11.367272</v>
+      </c>
+      <c r="BN157" t="n">
+        <v>0.01384945857386609</v>
+      </c>
+      <c r="BO157" t="n">
+        <v>3.814083789881386</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -32415,6 +34133,18 @@
       <c r="BK158" t="n">
         <v>3</v>
       </c>
+      <c r="BL158" t="n">
+        <v>1.616018803451075</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>16.7533175002866</v>
+      </c>
+      <c r="BN158" t="n">
+        <v>0.01403505821988371</v>
+      </c>
+      <c r="BO158" t="n">
+        <v>3.841424977406418</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -32623,6 +34353,18 @@
       </c>
       <c r="BK159" t="n">
         <v>2.666666666666667</v>
+      </c>
+      <c r="BL159" t="n">
+        <v>1.811462957919107</v>
+      </c>
+      <c r="BM159" t="n">
+        <v>2.097185894822666</v>
+      </c>
+      <c r="BN159" t="n">
+        <v>0.0181430583993895</v>
+      </c>
+      <c r="BO159" t="n">
+        <v>2.852420828016517</v>
       </c>
     </row>
     <row r="160">
@@ -32785,6 +34527,10 @@
       <c r="BK160" t="n">
         <v>1</v>
       </c>
+      <c r="BL160" t="inlineStr"/>
+      <c r="BM160" t="inlineStr"/>
+      <c r="BN160" t="inlineStr"/>
+      <c r="BO160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -32954,6 +34700,10 @@
       <c r="BK161" t="n">
         <v>1</v>
       </c>
+      <c r="BL161" t="inlineStr"/>
+      <c r="BM161" t="inlineStr"/>
+      <c r="BN161" t="inlineStr"/>
+      <c r="BO161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -33123,6 +34873,10 @@
       <c r="BK162" t="n">
         <v>1</v>
       </c>
+      <c r="BL162" t="inlineStr"/>
+      <c r="BM162" t="inlineStr"/>
+      <c r="BN162" t="inlineStr"/>
+      <c r="BO162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -33318,6 +35072,14 @@
       <c r="BK163" t="n">
         <v>1.5</v>
       </c>
+      <c r="BL163" t="inlineStr"/>
+      <c r="BM163" t="inlineStr"/>
+      <c r="BN163" t="n">
+        <v>0.0695066660123986</v>
+      </c>
+      <c r="BO163" t="n">
+        <v>0.5287311911500904</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -33523,6 +35285,18 @@
       <c r="BK164" t="n">
         <v>3</v>
       </c>
+      <c r="BL164" t="n">
+        <v>0.1321480244852532</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>9.825790837851084</v>
+      </c>
+      <c r="BN164" t="n">
+        <v>0.05964762565958091</v>
+      </c>
+      <c r="BO164" t="n">
+        <v>1.336664014062445</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -33728,6 +35502,18 @@
       <c r="BK165" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL165" t="n">
+        <v>0.08079951406552523</v>
+      </c>
+      <c r="BM165" t="n">
+        <v>2.75265402915036</v>
+      </c>
+      <c r="BN165" t="n">
+        <v>0.06469651979805956</v>
+      </c>
+      <c r="BO165" t="n">
+        <v>2.852485605901493</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -33933,6 +35719,18 @@
       <c r="BK166" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL166" t="n">
+        <v>0.0760455430653838</v>
+      </c>
+      <c r="BM166" t="n">
+        <v>2.097884644957661</v>
+      </c>
+      <c r="BN166" t="n">
+        <v>0.06435262815080997</v>
+      </c>
+      <c r="BO166" t="n">
+        <v>3.39398782438038</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -34142,6 +35940,18 @@
       <c r="BK167" t="n">
         <v>4</v>
       </c>
+      <c r="BL167" t="n">
+        <v>0.07551011589078767</v>
+      </c>
+      <c r="BM167" t="n">
+        <v>1.990616909227043</v>
+      </c>
+      <c r="BN167" t="n">
+        <v>0.05877727326318489</v>
+      </c>
+      <c r="BO167" t="n">
+        <v>3.575433160705436</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -34351,6 +36161,18 @@
       <c r="BK168" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL168" t="n">
+        <v>0.05786113182281601</v>
+      </c>
+      <c r="BM168" t="n">
+        <v>-0.3515837024845481</v>
+      </c>
+      <c r="BN168" t="n">
+        <v>0.08907126408218136</v>
+      </c>
+      <c r="BO168" t="n">
+        <v>2.746327279435835</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -34560,6 +36382,18 @@
       <c r="BK169" t="n">
         <v>4</v>
       </c>
+      <c r="BL169" t="n">
+        <v>0.05828624406800968</v>
+      </c>
+      <c r="BM169" t="n">
+        <v>-0.2727925340990671</v>
+      </c>
+      <c r="BN169" t="n">
+        <v>0.06106429511613077</v>
+      </c>
+      <c r="BO169" t="n">
+        <v>5.137397788141238</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -34769,6 +36603,18 @@
       <c r="BK170" t="n">
         <v>4</v>
       </c>
+      <c r="BL170" t="n">
+        <v>0.05988278954444096</v>
+      </c>
+      <c r="BM170" t="n">
+        <v>-0.01810112261770042</v>
+      </c>
+      <c r="BN170" t="n">
+        <v>0.05983027270212491</v>
+      </c>
+      <c r="BO170" t="n">
+        <v>5.486163633701127</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -34978,6 +36824,18 @@
       <c r="BK171" t="n">
         <v>4</v>
       </c>
+      <c r="BL171" t="n">
+        <v>0.06980898867133674</v>
+      </c>
+      <c r="BM171" t="n">
+        <v>1.469489568629001</v>
+      </c>
+      <c r="BN171" t="n">
+        <v>0.05631642374506714</v>
+      </c>
+      <c r="BO171" t="n">
+        <v>4.717321799950596</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -35187,6 +37045,18 @@
       <c r="BK172" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL172" t="n">
+        <v>0.07981944518762565</v>
+      </c>
+      <c r="BM172" t="n">
+        <v>3.175642903685704</v>
+      </c>
+      <c r="BN172" t="n">
+        <v>0.05868286088708567</v>
+      </c>
+      <c r="BO172" t="n">
+        <v>3.26956878739533</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -35396,6 +37266,18 @@
       <c r="BK173" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL173" t="n">
+        <v>0.09752146211127097</v>
+      </c>
+      <c r="BM173" t="n">
+        <v>5.812535819075096</v>
+      </c>
+      <c r="BN173" t="n">
+        <v>0.05791410813636387</v>
+      </c>
+      <c r="BO173" t="n">
+        <v>2.635073093461129</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -35605,6 +37487,18 @@
       <c r="BK174" t="n">
         <v>3.333333333333333</v>
       </c>
+      <c r="BL174" t="n">
+        <v>0.1194843118476796</v>
+      </c>
+      <c r="BM174" t="n">
+        <v>8.932484442830296</v>
+      </c>
+      <c r="BN174" t="n">
+        <v>0.0565717776525133</v>
+      </c>
+      <c r="BO174" t="n">
+        <v>2.169230449093296</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -35814,6 +37708,18 @@
       <c r="BK175" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL175" t="n">
+        <v>0.133448533687796</v>
+      </c>
+      <c r="BM175" t="n">
+        <v>10.73937844981731</v>
+      </c>
+      <c r="BN175" t="n">
+        <v>0.04570021184906986</v>
+      </c>
+      <c r="BO175" t="n">
+        <v>2.49055899536643</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -36023,6 +37929,18 @@
       <c r="BK176" t="n">
         <v>3.333333333333333</v>
       </c>
+      <c r="BL176" t="n">
+        <v>0.1539982125994874</v>
+      </c>
+      <c r="BM176" t="n">
+        <v>13.6091139685508</v>
+      </c>
+      <c r="BN176" t="n">
+        <v>0.05005602804779972</v>
+      </c>
+      <c r="BO176" t="n">
+        <v>1.989387800991113</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -36232,6 +38150,18 @@
       <c r="BK177" t="n">
         <v>3.333333333333333</v>
       </c>
+      <c r="BL177" t="n">
+        <v>0.1763080186970696</v>
+      </c>
+      <c r="BM177" t="n">
+        <v>16.69858698720711</v>
+      </c>
+      <c r="BN177" t="n">
+        <v>0.05476175245884327</v>
+      </c>
+      <c r="BO177" t="n">
+        <v>1.664716451242829</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -36441,6 +38371,18 @@
       <c r="BK178" t="n">
         <v>2.666666666666667</v>
       </c>
+      <c r="BL178" t="n">
+        <v>0.201097758669298</v>
+      </c>
+      <c r="BM178" t="n">
+        <v>19.82967574501385</v>
+      </c>
+      <c r="BN178" t="n">
+        <v>0.06478033072772776</v>
+      </c>
+      <c r="BO178" t="n">
+        <v>1.286463574005198</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -36650,6 +38592,18 @@
       <c r="BK179" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL179" t="n">
+        <v>0.2286124478952359</v>
+      </c>
+      <c r="BM179" t="n">
+        <v>22.62106258580467</v>
+      </c>
+      <c r="BN179" t="n">
+        <v>0.06111675675611321</v>
+      </c>
+      <c r="BO179" t="n">
+        <v>1.290802700001708</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -36859,6 +38813,18 @@
       <c r="BK180" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL180" t="n">
+        <v>0.2537409780228692</v>
+      </c>
+      <c r="BM180" t="n">
+        <v>25.726131050095</v>
+      </c>
+      <c r="BN180" t="n">
+        <v>0.05796850262197224</v>
+      </c>
+      <c r="BO180" t="n">
+        <v>1.270063607635401</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -37068,6 +39034,18 @@
       <c r="BK181" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL181" t="n">
+        <v>0.272616138255058</v>
+      </c>
+      <c r="BM181" t="n">
+        <v>28.00364095134845</v>
+      </c>
+      <c r="BN181" t="n">
+        <v>0.0476851846393346</v>
+      </c>
+      <c r="BO181" t="n">
+        <v>1.490300653919783</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -37277,6 +39255,18 @@
       <c r="BK182" t="n">
         <v>2.333333333333333</v>
       </c>
+      <c r="BL182" t="n">
+        <v>0.2807771671361936</v>
+      </c>
+      <c r="BM182" t="n">
+        <v>28.95608815320205</v>
+      </c>
+      <c r="BN182" t="n">
+        <v>0.04559160418956233</v>
+      </c>
+      <c r="BO182" t="n">
+        <v>1.564932340029243</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -37486,6 +39476,18 @@
       <c r="BK183" t="n">
         <v>2.666666666666667</v>
       </c>
+      <c r="BL183" t="n">
+        <v>0.2865500326401194</v>
+      </c>
+      <c r="BM183" t="n">
+        <v>26.00174251457269</v>
+      </c>
+      <c r="BN183" t="n">
+        <v>0.03298984108672669</v>
+      </c>
+      <c r="BO183" t="n">
+        <v>2.20747945751035</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -37695,6 +39697,18 @@
       <c r="BK184" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL184" t="n">
+        <v>0.1319122312912375</v>
+      </c>
+      <c r="BM184" t="n">
+        <v>15.67527151337553</v>
+      </c>
+      <c r="BN184" t="n">
+        <v>0.02842987107082668</v>
+      </c>
+      <c r="BO184" t="n">
+        <v>3.688236837042442</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -37904,6 +39918,18 @@
       <c r="BK185" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL185" t="n">
+        <v>0.1236981383176828</v>
+      </c>
+      <c r="BM185" t="n">
+        <v>13.77837881964734</v>
+      </c>
+      <c r="BN185" t="n">
+        <v>0.02043822608431695</v>
+      </c>
+      <c r="BO185" t="n">
+        <v>5.852105162370271</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -38110,6 +40136,18 @@
       </c>
       <c r="BK186" t="n">
         <v>4</v>
+      </c>
+      <c r="BL186" t="n">
+        <v>0.07918583690107954</v>
+      </c>
+      <c r="BM186" t="n">
+        <v>0.4024138947393748</v>
+      </c>
+      <c r="BN186" t="n">
+        <v>0.02341429523125458</v>
+      </c>
+      <c r="BO186" t="n">
+        <v>10.70097860729494</v>
       </c>
     </row>
     <row r="187">
@@ -38272,6 +40310,10 @@
       <c r="BK187" t="n">
         <v>1</v>
       </c>
+      <c r="BL187" t="inlineStr"/>
+      <c r="BM187" t="inlineStr"/>
+      <c r="BN187" t="inlineStr"/>
+      <c r="BO187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -38441,6 +40483,10 @@
       <c r="BK188" t="n">
         <v>1</v>
       </c>
+      <c r="BL188" t="inlineStr"/>
+      <c r="BM188" t="inlineStr"/>
+      <c r="BN188" t="inlineStr"/>
+      <c r="BO188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -38610,6 +40656,10 @@
       <c r="BK189" t="n">
         <v>1</v>
       </c>
+      <c r="BL189" t="inlineStr"/>
+      <c r="BM189" t="inlineStr"/>
+      <c r="BN189" t="inlineStr"/>
+      <c r="BO189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -38805,6 +40855,14 @@
       <c r="BK190" t="n">
         <v>4</v>
       </c>
+      <c r="BL190" t="inlineStr"/>
+      <c r="BM190" t="inlineStr"/>
+      <c r="BN190" t="n">
+        <v>0.008919655740331893</v>
+      </c>
+      <c r="BO190" t="n">
+        <v>4.502853583529721</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -39010,6 +41068,18 @@
       <c r="BK191" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL191" t="n">
+        <v>0.2902114096350453</v>
+      </c>
+      <c r="BM191" t="n">
+        <v>0.3317269033465764</v>
+      </c>
+      <c r="BN191" t="n">
+        <v>0.007038295668330742</v>
+      </c>
+      <c r="BO191" t="n">
+        <v>5.75210699353178</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -39215,6 +41285,18 @@
       <c r="BK192" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL192" t="n">
+        <v>0.3651605281141618</v>
+      </c>
+      <c r="BM192" t="n">
+        <v>0.3466915023998877</v>
+      </c>
+      <c r="BN192" t="n">
+        <v>0.005150576730926375</v>
+      </c>
+      <c r="BO192" t="n">
+        <v>5.800826677610946</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -39420,6 +41502,18 @@
       <c r="BK193" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL193" t="n">
+        <v>0.3010803300516128</v>
+      </c>
+      <c r="BM193" t="n">
+        <v>0.3424614907301782</v>
+      </c>
+      <c r="BN193" t="n">
+        <v>0.004983115561412419</v>
+      </c>
+      <c r="BO193" t="n">
+        <v>6.521474503855123</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -39629,6 +41723,18 @@
       <c r="BK194" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL194" t="n">
+        <v>0.3084083827201911</v>
+      </c>
+      <c r="BM194" t="n">
+        <v>0.3701828777673138</v>
+      </c>
+      <c r="BN194" t="n">
+        <v>0.003541885355972306</v>
+      </c>
+      <c r="BO194" t="n">
+        <v>7.007606239090713</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -39838,6 +41944,18 @@
       <c r="BK195" t="n">
         <v>3.333333333333333</v>
       </c>
+      <c r="BL195" t="n">
+        <v>0.3415708315854356</v>
+      </c>
+      <c r="BM195" t="n">
+        <v>0.4383399846049305</v>
+      </c>
+      <c r="BN195" t="n">
+        <v>0.00227067576920709</v>
+      </c>
+      <c r="BO195" t="n">
+        <v>5.673148482563219</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -40047,6 +42165,18 @@
       <c r="BK196" t="n">
         <v>3.333333333333333</v>
       </c>
+      <c r="BL196" t="n">
+        <v>0.4054792641822942</v>
+      </c>
+      <c r="BM196" t="n">
+        <v>0.5206370824492352</v>
+      </c>
+      <c r="BN196" t="n">
+        <v>0.0025760907778187</v>
+      </c>
+      <c r="BO196" t="n">
+        <v>6.45046431684105</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -40256,6 +42386,18 @@
       <c r="BK197" t="n">
         <v>3.333333333333333</v>
       </c>
+      <c r="BL197" t="n">
+        <v>0.4038428077643672</v>
+      </c>
+      <c r="BM197" t="n">
+        <v>0.5734593870201671</v>
+      </c>
+      <c r="BN197" t="n">
+        <v>0.002812550876958366</v>
+      </c>
+      <c r="BO197" t="n">
+        <v>7.485605710515542</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -40465,6 +42607,18 @@
       <c r="BK198" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL198" t="n">
+        <v>0.4045948624059344</v>
+      </c>
+      <c r="BM198" t="n">
+        <v>0.5973772709848447</v>
+      </c>
+      <c r="BN198" t="n">
+        <v>0.003216391733719907</v>
+      </c>
+      <c r="BO198" t="n">
+        <v>10.90998161980035</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -40674,6 +42828,18 @@
       <c r="BK199" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL199" t="n">
+        <v>0.389528716733736</v>
+      </c>
+      <c r="BM199" t="n">
+        <v>0.627339215237108</v>
+      </c>
+      <c r="BN199" t="n">
+        <v>0.003326962640838391</v>
+      </c>
+      <c r="BO199" t="n">
+        <v>9.113173161752654</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -40883,6 +43049,18 @@
       <c r="BK200" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL200" t="n">
+        <v>0.3700025033116427</v>
+      </c>
+      <c r="BM200" t="n">
+        <v>0.6447498555748122</v>
+      </c>
+      <c r="BN200" t="n">
+        <v>0.003144393644203753</v>
+      </c>
+      <c r="BO200" t="n">
+        <v>8.63590378299639</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -41092,6 +43270,18 @@
       <c r="BK201" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL201" t="n">
+        <v>0.3636291279481178</v>
+      </c>
+      <c r="BM201" t="n">
+        <v>0.6680452338145451</v>
+      </c>
+      <c r="BN201" t="n">
+        <v>0.00361890636660416</v>
+      </c>
+      <c r="BO201" t="n">
+        <v>8.32391773556621</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -41301,6 +43491,18 @@
       <c r="BK202" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL202" t="n">
+        <v>0.3676525880554282</v>
+      </c>
+      <c r="BM202" t="n">
+        <v>0.6947886024038211</v>
+      </c>
+      <c r="BN202" t="n">
+        <v>0.002998237084194997</v>
+      </c>
+      <c r="BO202" t="n">
+        <v>8.861877398684586</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -41510,6 +43712,18 @@
       <c r="BK203" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL203" t="n">
+        <v>0.3795813695739237</v>
+      </c>
+      <c r="BM203" t="n">
+        <v>0.7711201494154734</v>
+      </c>
+      <c r="BN203" t="n">
+        <v>0.006222765596030628</v>
+      </c>
+      <c r="BO203" t="n">
+        <v>5.667634610233011</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -41719,6 +43933,18 @@
       <c r="BK204" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL204" t="n">
+        <v>0.4013456758357762</v>
+      </c>
+      <c r="BM204" t="n">
+        <v>0.8721734363322095</v>
+      </c>
+      <c r="BN204" t="n">
+        <v>0.007506195079492038</v>
+      </c>
+      <c r="BO204" t="n">
+        <v>5.133672433833421</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -41928,6 +44154,18 @@
       <c r="BK205" t="n">
         <v>3</v>
       </c>
+      <c r="BL205" t="n">
+        <v>0.4237483827779822</v>
+      </c>
+      <c r="BM205" t="n">
+        <v>0.9566189770454577</v>
+      </c>
+      <c r="BN205" t="n">
+        <v>0.01046683540038233</v>
+      </c>
+      <c r="BO205" t="n">
+        <v>3.283116289360053</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -42137,6 +44375,18 @@
       <c r="BK206" t="n">
         <v>3.333333333333333</v>
       </c>
+      <c r="BL206" t="n">
+        <v>0.4520395436653321</v>
+      </c>
+      <c r="BM206" t="n">
+        <v>1.093404730667271</v>
+      </c>
+      <c r="BN206" t="n">
+        <v>0.007682642724286267</v>
+      </c>
+      <c r="BO206" t="n">
+        <v>3.994407770130052</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -42346,6 +44596,18 @@
       <c r="BK207" t="n">
         <v>3.333333333333333</v>
       </c>
+      <c r="BL207" t="n">
+        <v>0.4247932200295012</v>
+      </c>
+      <c r="BM207" t="n">
+        <v>1.074397431176104</v>
+      </c>
+      <c r="BN207" t="n">
+        <v>0.007351102425378341</v>
+      </c>
+      <c r="BO207" t="n">
+        <v>3.926247755036131</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -42555,6 +44817,18 @@
       <c r="BK208" t="n">
         <v>3.666666666666667</v>
       </c>
+      <c r="BL208" t="n">
+        <v>0.3787894245609899</v>
+      </c>
+      <c r="BM208" t="n">
+        <v>0.9883952993958715</v>
+      </c>
+      <c r="BN208" t="n">
+        <v>0.003718320008662021</v>
+      </c>
+      <c r="BO208" t="n">
+        <v>4.882223181377307</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -42764,6 +45038,18 @@
       <c r="BK209" t="n">
         <v>3.333333333333333</v>
       </c>
+      <c r="BL209" t="n">
+        <v>0.3576839340988653</v>
+      </c>
+      <c r="BM209" t="n">
+        <v>0.9225251172573142</v>
+      </c>
+      <c r="BN209" t="n">
+        <v>0.003366727900870502</v>
+      </c>
+      <c r="BO209" t="n">
+        <v>4.540450037502069</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -42973,6 +45259,18 @@
       <c r="BK210" t="n">
         <v>3.333333333333333</v>
       </c>
+      <c r="BL210" t="n">
+        <v>0.3365541973531704</v>
+      </c>
+      <c r="BM210" t="n">
+        <v>0.8959240316749095</v>
+      </c>
+      <c r="BN210" t="n">
+        <v>0.002645015062002694</v>
+      </c>
+      <c r="BO210" t="n">
+        <v>7.353683409875715</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -43182,6 +45480,18 @@
       <c r="BK211" t="n">
         <v>3</v>
       </c>
+      <c r="BL211" t="n">
+        <v>0.3404776673069387</v>
+      </c>
+      <c r="BM211" t="n">
+        <v>0.9067393125537425</v>
+      </c>
+      <c r="BN211" t="n">
+        <v>0.003769665404168776</v>
+      </c>
+      <c r="BO211" t="n">
+        <v>7.834872288163276</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -43388,6 +45698,18 @@
       </c>
       <c r="BK212" t="n">
         <v>3</v>
+      </c>
+      <c r="BL212" t="n">
+        <v>0.3492939372356695</v>
+      </c>
+      <c r="BM212" t="n">
+        <v>0.9703596145375566</v>
+      </c>
+      <c r="BN212" t="n">
+        <v>0.005548792067467004</v>
+      </c>
+      <c r="BO212" t="n">
+        <v>7.644232628016068</v>
       </c>
     </row>
   </sheetData>
